--- a/src/test/java/com/testData/car_data.xlsx
+++ b/src/test/java/com/testData/car_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge3ta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashvi\OneDrive\Documents\Old laptop\AutomationPractise\src\test\java\com\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095A77E7-E2A4-4C96-9DA7-F5F1C6692DA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E54E3BA-9F94-471E-9E1F-FDB33735FACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{05C35363-A620-46C4-BA77-E383B6B23F49}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{05C35363-A620-46C4-BA77-E383B6B23F49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>Registration number</t>
   </si>
@@ -57,10 +58,6 @@
     <t>LV03 UPJ</t>
   </si>
   <si>
-    <t xml:space="preserve">SILVER
-</t>
-  </si>
-  <si>
     <t>AK17 UCB</t>
   </si>
   <si>
@@ -80,13 +77,22 @@
   </si>
   <si>
     <t>KT17YFH</t>
+  </si>
+  <si>
+    <t>KW56UXJ</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>RED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +119,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -134,12 +146,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,18 +471,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846C01FD-7419-4A98-A55C-064B3CA0FB19}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -478,7 +493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -489,7 +504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -500,42 +515,42 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -548,4 +563,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B86D47-C88C-4444-A1C4-5A88FDE2E1E6}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>